--- a/data/ascaphus_locations.xlsx
+++ b/data/ascaphus_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morgan.sparks/Library/CloudStorage/Box-Box/Morgan.Sparks/Projects/hatchR_nonfish/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BD4DB7-5765-9B45-AA77-D12AD7B16AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB013562-0BDD-6645-AB73-B281119D2489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5840" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{D09CA32F-615A-4003-9DBD-94C68F9E0F6E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
   <si>
     <t>Mountain</t>
   </si>
@@ -82,13 +82,16 @@
   </si>
   <si>
     <t>HUC_6</t>
+  </si>
+  <si>
+    <t>oviposition_date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +131,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -149,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -157,10 +170,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,23 +520,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF7DD8E-FA33-4C12-8A79-76DC52A18DF2}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="14.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="3"/>
+    <col min="1" max="6" width="14.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="3" customWidth="1"/>
+    <col min="11" max="13" width="9.1640625" style="3"/>
+    <col min="14" max="14" width="17.83203125" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,754 +550,783 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5">
-        <v>455459</v>
+        <v>578681</v>
       </c>
       <c r="C2" s="5">
-        <v>5000387</v>
-      </c>
-      <c r="D2" s="3">
-        <v>23430588</v>
-      </c>
-      <c r="F2" s="6">
-        <v>170601</v>
-      </c>
-      <c r="G2" s="6">
-        <v>17060104</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1706010405</v>
-      </c>
-      <c r="I2" s="6">
-        <v>170601040501</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+        <v>5207691</v>
+      </c>
+      <c r="D2" s="9">
+        <v>37110</v>
+      </c>
+      <c r="E2" s="5">
+        <v>23981973</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5">
+        <v>171100</v>
+      </c>
+      <c r="H2" s="5">
+        <v>17110014</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1711001401</v>
+      </c>
+      <c r="J2" s="5">
+        <v>171100140103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>597772</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5413519</v>
+      </c>
+      <c r="D3" s="11">
+        <v>26496</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5">
+        <v>171100</v>
+      </c>
+      <c r="H3" s="5">
+        <v>17110004</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1711000401</v>
+      </c>
+      <c r="J3" s="5">
+        <v>171100040101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B4" s="4">
         <v>382592</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C4" s="4">
         <v>4727779</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D4" s="12">
+        <v>33447</v>
+      </c>
+      <c r="E4" s="3">
         <v>23921116</v>
       </c>
-      <c r="F3" s="6">
+      <c r="G4" s="5">
         <v>171003</v>
       </c>
-      <c r="G3" s="6">
+      <c r="H4" s="5">
         <v>17100306</v>
       </c>
-      <c r="H3" s="6">
+      <c r="I4" s="5">
         <v>1710030604</v>
       </c>
-      <c r="I3" s="6">
+      <c r="J4" s="5">
         <v>171003060401</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6">
-        <v>459641</v>
-      </c>
-      <c r="C4" s="6">
-        <v>4802935</v>
-      </c>
-      <c r="D4" s="6">
-        <v>24526928</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6">
+      <c r="B5" s="5">
+        <v>507604</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4601330</v>
+      </c>
+      <c r="D5" s="9">
+        <v>35275</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="5">
+        <v>180102</v>
+      </c>
+      <c r="H5" s="5">
+        <v>18010208</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1801020805</v>
+      </c>
+      <c r="J5" s="5">
+        <v>180102080503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5">
+        <v>438750</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5317170</v>
+      </c>
+      <c r="D6" s="9">
+        <v>35249</v>
+      </c>
+      <c r="E6" s="5">
+        <v>23838716</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
+        <v>171001</v>
+      </c>
+      <c r="H6" s="5">
+        <v>17100101</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1710010106</v>
+      </c>
+      <c r="J6" s="5">
+        <v>171001010601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5">
+        <v>438925</v>
+      </c>
+      <c r="C7" s="5">
+        <v>5317100</v>
+      </c>
+      <c r="D7" s="10">
+        <v>35255</v>
+      </c>
+      <c r="E7" s="5">
+        <v>23838716</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
+        <v>171001</v>
+      </c>
+      <c r="H7" s="5">
+        <v>17100101</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1710010106</v>
+      </c>
+      <c r="J7" s="5">
+        <v>171001010601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5">
+        <v>465950</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5290700</v>
+      </c>
+      <c r="D8" s="10">
+        <v>35270</v>
+      </c>
+      <c r="E8" s="5">
+        <v>23997212</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5">
+        <v>171100</v>
+      </c>
+      <c r="H8" s="5">
+        <v>17110020</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1711002005</v>
+      </c>
+      <c r="J8" s="5">
+        <v>171100200505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5">
+        <v>475860</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5274640</v>
+      </c>
+      <c r="D9" s="10">
+        <v>35958</v>
+      </c>
+      <c r="E9" s="5">
+        <v>24285646</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
+        <v>171100</v>
+      </c>
+      <c r="H9" s="5">
+        <v>17110017</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1711001702</v>
+      </c>
+      <c r="J9" s="5">
+        <v>171100170201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5">
+        <v>485380</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5287820</v>
+      </c>
+      <c r="D10" s="10">
+        <v>35965</v>
+      </c>
+      <c r="E10" s="5">
+        <v>24286982</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5">
+        <v>171100</v>
+      </c>
+      <c r="H10" s="5">
+        <v>17110018</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1711001805</v>
+      </c>
+      <c r="J10" s="5">
+        <v>171100180503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>435666</v>
+      </c>
+      <c r="C11" s="5">
+        <v>4709083</v>
+      </c>
+      <c r="D11" s="9">
+        <v>37782</v>
+      </c>
+      <c r="E11" s="5">
+        <v>23945495</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5">
         <v>171003</v>
       </c>
-      <c r="G4" s="6">
-        <v>17100303</v>
-      </c>
-      <c r="H4" s="6">
-        <v>1710030302</v>
-      </c>
-      <c r="I4" s="6">
-        <v>171003030201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="H11" s="5">
+        <v>17100311</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1710031109</v>
+      </c>
+      <c r="J11" s="5">
+        <v>171003110902</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5">
+        <v>442715</v>
+      </c>
+      <c r="C12" s="5">
+        <v>4710472</v>
+      </c>
+      <c r="D12" s="10">
+        <v>37825</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="5">
+        <v>171003</v>
+      </c>
+      <c r="H12" s="5">
+        <v>17100310</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1710031002</v>
+      </c>
+      <c r="J12" s="5">
+        <v>171003100204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5">
+        <v>469563</v>
+      </c>
+      <c r="C13" s="5">
+        <v>4662249</v>
+      </c>
+      <c r="D13" s="9">
+        <v>37443</v>
+      </c>
+      <c r="E13" s="5">
+        <v>23946245</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5">
+        <v>171003</v>
+      </c>
+      <c r="H13" s="5">
+        <v>17100311</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1710031102</v>
+      </c>
+      <c r="J13" s="5">
+        <v>171003110203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5">
+        <v>471912</v>
+      </c>
+      <c r="C14" s="5">
+        <v>4662950</v>
+      </c>
+      <c r="D14" s="9">
+        <v>37459</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="5">
+        <v>171003</v>
+      </c>
+      <c r="H14" s="5">
+        <v>17100311</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1710031102</v>
+      </c>
+      <c r="J14" s="5">
+        <v>171003110203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="5">
+        <v>517583</v>
+      </c>
+      <c r="C15" s="5">
+        <v>4658226</v>
+      </c>
+      <c r="D15" s="9">
+        <v>37433</v>
+      </c>
+      <c r="E15" s="5">
+        <v>23936269</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5">
+        <v>171003</v>
+      </c>
+      <c r="H15" s="5">
+        <v>17100309</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1710030903</v>
+      </c>
+      <c r="J15" s="5">
+        <v>171003090301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B16" s="5">
         <v>482494</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C16" s="5">
         <v>5154722</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
+      <c r="D16" s="9">
+        <v>37820</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G16" s="5">
         <v>171001</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H16" s="5">
         <v>17100103</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I16" s="5">
         <v>1710010301</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J16" s="5">
         <v>171001030105</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B17" s="5">
         <v>484490</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C17" s="5">
         <v>5147221</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D17" s="9">
+        <v>37825</v>
+      </c>
+      <c r="E17" s="5">
         <v>23852061</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5">
         <v>171001</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H17" s="5">
         <v>17100103</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I17" s="5">
         <v>1710010301</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J17" s="5">
         <v>171001030105</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B18" s="5">
         <v>484803</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C18" s="5">
         <v>5149592</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D18" s="9">
+        <v>37824</v>
+      </c>
+      <c r="E18" s="5">
         <v>23852017</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5">
         <v>171001</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H18" s="5">
         <v>17100103</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I18" s="5">
         <v>1710010301</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J18" s="5">
         <v>171001030105</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B19" s="5">
         <v>484803</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C19" s="5">
         <v>5149592</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D19" s="9">
+        <v>37825</v>
+      </c>
+      <c r="E19" s="5">
         <v>23852017</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5">
         <v>171001</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H19" s="5">
         <v>17100103</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I19" s="5">
         <v>1710010301</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J19" s="5">
         <v>171001030105</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B20" s="5">
         <v>484824</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C20" s="5">
         <v>5149561</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D20" s="9">
+        <v>37832</v>
+      </c>
+      <c r="E20" s="5">
         <v>23852017</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5">
         <v>171001</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H20" s="5">
         <v>17100103</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I20" s="5">
         <v>1710010301</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J20" s="5">
         <v>171001030105</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B21" s="5">
         <v>484824</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C21" s="5">
         <v>5149561</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D21" s="9">
+        <v>37833</v>
+      </c>
+      <c r="E21" s="5">
         <v>23852017</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5">
         <v>171001</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H21" s="5">
         <v>17100103</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I21" s="5">
         <v>1710010301</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J21" s="5">
         <v>171001030105</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B22" s="5">
         <v>484824</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C22" s="5">
         <v>5149561</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D22" s="9">
+        <v>37833</v>
+      </c>
+      <c r="E22" s="5">
         <v>23852017</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5">
         <v>171001</v>
       </c>
-      <c r="G11" s="6">
+      <c r="H22" s="5">
         <v>17100103</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I22" s="5">
         <v>1710010301</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J22" s="5">
         <v>171001030105</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B23" s="5">
         <v>485088</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C23" s="5">
         <v>5144405</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D23" s="9">
+        <v>37840</v>
+      </c>
+      <c r="E23" s="5">
         <v>23852075</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5">
         <v>171001</v>
       </c>
-      <c r="G12" s="6">
+      <c r="H23" s="5">
         <v>17100103</v>
       </c>
-      <c r="H12" s="6">
+      <c r="I23" s="5">
         <v>1710010301</v>
       </c>
-      <c r="I12" s="6">
+      <c r="J23" s="5">
         <v>171001030105</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B24" s="5">
         <v>487523</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C24" s="5">
         <v>5145511</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
+      <c r="D24" s="9">
+        <v>37843</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="6">
+      <c r="G24" s="5">
         <v>171001</v>
       </c>
-      <c r="G13" s="6">
+      <c r="H24" s="5">
         <v>17100103</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I24" s="5">
         <v>1710010301</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J24" s="5">
         <v>171001030105</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B25" s="5">
         <v>487523</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C25" s="5">
         <v>5145573</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
+      <c r="D25" s="9">
+        <v>37844</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="6">
+      <c r="G25" s="5">
         <v>171001</v>
       </c>
-      <c r="G14" s="6">
+      <c r="H25" s="5">
         <v>17100103</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I25" s="5">
         <v>1710010301</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J25" s="5">
         <v>171001030105</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B26" s="5">
         <v>487714</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C26" s="5">
         <v>5145202</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
+      <c r="D26" s="9">
+        <v>37113</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="6">
+      <c r="G26" s="5">
         <v>171001</v>
       </c>
-      <c r="G15" s="6">
+      <c r="H26" s="5">
         <v>17100103</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I26" s="5">
         <v>1710010301</v>
       </c>
-      <c r="I15" s="6">
+      <c r="J26" s="5">
         <v>171001030105</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="6">
-        <v>578681</v>
-      </c>
-      <c r="C16" s="6">
-        <v>5207691</v>
-      </c>
-      <c r="D16" s="6">
-        <v>23981973</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6">
-        <v>171100</v>
-      </c>
-      <c r="G16" s="6">
-        <v>17110014</v>
-      </c>
-      <c r="H16" s="6">
-        <v>1711001401</v>
-      </c>
-      <c r="I16" s="6">
-        <v>171100140103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="6">
-        <v>597772</v>
-      </c>
-      <c r="C17" s="6">
-        <v>5413519</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="6">
-        <v>171100</v>
-      </c>
-      <c r="G17" s="6">
-        <v>17110004</v>
-      </c>
-      <c r="H17" s="6">
-        <v>1711000401</v>
-      </c>
-      <c r="I17" s="6">
-        <v>171100040101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="6">
-        <v>435666</v>
-      </c>
-      <c r="C18" s="6">
-        <v>4709083</v>
-      </c>
-      <c r="D18" s="6">
-        <v>23945495</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6">
-        <v>171003</v>
-      </c>
-      <c r="G18" s="6">
-        <v>17100311</v>
-      </c>
-      <c r="H18" s="6">
-        <v>1710031109</v>
-      </c>
-      <c r="I18" s="6">
-        <v>171003110902</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="6">
-        <v>438750</v>
-      </c>
-      <c r="C19" s="6">
-        <v>5317170</v>
-      </c>
-      <c r="D19" s="6">
-        <v>23838716</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6">
-        <v>171001</v>
-      </c>
-      <c r="G19" s="6">
-        <v>17100101</v>
-      </c>
-      <c r="H19" s="6">
-        <v>1710010106</v>
-      </c>
-      <c r="I19" s="6">
-        <v>171001010601</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="6">
-        <v>438925</v>
-      </c>
-      <c r="C20" s="6">
-        <v>5317100</v>
-      </c>
-      <c r="D20" s="6">
-        <v>23838716</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6">
-        <v>171001</v>
-      </c>
-      <c r="G20" s="6">
-        <v>17100101</v>
-      </c>
-      <c r="H20" s="6">
-        <v>1710010106</v>
-      </c>
-      <c r="I20" s="6">
-        <v>171001010601</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="6">
-        <v>442715</v>
-      </c>
-      <c r="C21" s="6">
-        <v>4710472</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="6">
-        <v>171003</v>
-      </c>
-      <c r="G21" s="6">
-        <v>17100310</v>
-      </c>
-      <c r="H21" s="6">
-        <v>1710031002</v>
-      </c>
-      <c r="I21" s="6">
-        <v>171003100204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="6">
-        <v>465950</v>
-      </c>
-      <c r="C22" s="6">
-        <v>5290700</v>
-      </c>
-      <c r="D22" s="6">
-        <v>23997212</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6">
-        <v>171100</v>
-      </c>
-      <c r="G22" s="6">
-        <v>17110020</v>
-      </c>
-      <c r="H22" s="6">
-        <v>1711002005</v>
-      </c>
-      <c r="I22" s="6">
-        <v>171100200505</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="6">
-        <v>469563</v>
-      </c>
-      <c r="C23" s="6">
-        <v>4662249</v>
-      </c>
-      <c r="D23" s="6">
-        <v>23946245</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6">
-        <v>171003</v>
-      </c>
-      <c r="G23" s="6">
-        <v>17100311</v>
-      </c>
-      <c r="H23" s="6">
-        <v>1710031102</v>
-      </c>
-      <c r="I23" s="6">
-        <v>171003110203</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="6">
-        <v>471912</v>
-      </c>
-      <c r="C24" s="6">
-        <v>4662950</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="6">
-        <v>171003</v>
-      </c>
-      <c r="G24" s="6">
-        <v>17100311</v>
-      </c>
-      <c r="H24" s="6">
-        <v>1710031102</v>
-      </c>
-      <c r="I24" s="6">
-        <v>171003110203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="6">
-        <v>475860</v>
-      </c>
-      <c r="C25" s="6">
-        <v>5274640</v>
-      </c>
-      <c r="D25" s="6">
-        <v>24285646</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6">
-        <v>171100</v>
-      </c>
-      <c r="G25" s="6">
-        <v>17110017</v>
-      </c>
-      <c r="H25" s="6">
-        <v>1711001702</v>
-      </c>
-      <c r="I25" s="6">
-        <v>171100170201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="6">
-        <v>485380</v>
-      </c>
-      <c r="C26" s="6">
-        <v>5287820</v>
-      </c>
-      <c r="D26" s="6">
-        <v>24286982</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6">
-        <v>171100</v>
-      </c>
-      <c r="G26" s="6">
-        <v>17110018</v>
-      </c>
-      <c r="H26" s="6">
-        <v>1711001805</v>
-      </c>
-      <c r="I26" s="6">
-        <v>171100180503</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="6">
-        <v>507604</v>
-      </c>
-      <c r="C27" s="6">
-        <v>4601330</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="6">
-        <v>180102</v>
-      </c>
-      <c r="G27" s="6">
-        <v>18010208</v>
-      </c>
-      <c r="H27" s="6">
-        <v>1801020805</v>
-      </c>
-      <c r="I27" s="6">
-        <v>180102080503</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="6">
-        <v>517583</v>
-      </c>
-      <c r="C28" s="6">
-        <v>4658226</v>
-      </c>
-      <c r="D28" s="6">
-        <v>23936269</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6">
-        <v>171003</v>
-      </c>
-      <c r="G28" s="6">
-        <v>17100309</v>
-      </c>
-      <c r="H28" s="6">
-        <v>1710030903</v>
-      </c>
-      <c r="I28" s="6">
-        <v>171003090301</v>
-      </c>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D31" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I18:I28">
-    <sortCondition ref="I18:I28"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>